--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
@@ -540,10 +540,10 @@
         <v>1.068021</v>
       </c>
       <c r="I2">
-        <v>0.08840121110588732</v>
+        <v>0.08840121110588733</v>
       </c>
       <c r="J2">
-        <v>0.08840121110588733</v>
+        <v>0.08840121110588735</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.22137533333333</v>
+        <v>26.34406266666667</v>
       </c>
       <c r="N2">
-        <v>63.664126</v>
+        <v>79.032188</v>
       </c>
       <c r="O2">
-        <v>0.2719819326156953</v>
+        <v>0.3168347904490542</v>
       </c>
       <c r="P2">
-        <v>0.2719819326156953</v>
+        <v>0.3168347904490542</v>
       </c>
       <c r="Q2">
-        <v>7.554958168293999</v>
+        <v>9.378670717772001</v>
       </c>
       <c r="R2">
-        <v>67.99462351464599</v>
+        <v>84.40803645994801</v>
       </c>
       <c r="S2">
-        <v>0.0240435322421473</v>
+        <v>0.02800857919617642</v>
       </c>
       <c r="T2">
-        <v>0.02404353224214731</v>
+        <v>0.02800857919617642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.068021</v>
       </c>
       <c r="I3">
-        <v>0.08840121110588732</v>
+        <v>0.08840121110588733</v>
       </c>
       <c r="J3">
-        <v>0.08840121110588733</v>
+        <v>0.08840121110588735</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.036239</v>
       </c>
       <c r="O3">
-        <v>0.0001548180093772148</v>
+        <v>0.0001452797431229321</v>
       </c>
       <c r="P3">
-        <v>0.0001548180093772148</v>
+        <v>0.0001452797431229321</v>
       </c>
       <c r="Q3">
-        <v>0.004300445890999999</v>
+        <v>0.004300445891</v>
       </c>
       <c r="R3">
-        <v>0.038704013019</v>
+        <v>0.03870401301900001</v>
       </c>
       <c r="S3">
-        <v>1.368609952994841E-05</v>
+        <v>1.28429052412194E-05</v>
       </c>
       <c r="T3">
-        <v>1.368609952994841E-05</v>
+        <v>1.28429052412194E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.068021</v>
       </c>
       <c r="I4">
-        <v>0.08840121110588732</v>
+        <v>0.08840121110588733</v>
       </c>
       <c r="J4">
-        <v>0.08840121110588733</v>
+        <v>0.08840121110588735</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>170.37447</v>
       </c>
       <c r="O4">
-        <v>0.7278632493749275</v>
+        <v>0.6830199298078229</v>
       </c>
       <c r="P4">
-        <v>0.7278632493749274</v>
+        <v>0.6830199298078229</v>
       </c>
       <c r="Q4">
         <v>20.21816798043</v>
@@ -694,10 +694,10 @@
         <v>181.96351182387</v>
       </c>
       <c r="S4">
-        <v>0.06434399276421007</v>
+        <v>0.0603797890044697</v>
       </c>
       <c r="T4">
-        <v>0.06434399276421007</v>
+        <v>0.06037978900446971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.22137533333333</v>
+        <v>26.34406266666667</v>
       </c>
       <c r="N5">
-        <v>63.664126</v>
+        <v>79.032188</v>
       </c>
       <c r="O5">
-        <v>0.2719819326156953</v>
+        <v>0.3168347904490542</v>
       </c>
       <c r="P5">
-        <v>0.2719819326156953</v>
+        <v>0.3168347904490542</v>
       </c>
       <c r="Q5">
-        <v>77.90719867076378</v>
+        <v>96.71343594509023</v>
       </c>
       <c r="R5">
-        <v>701.164788036874</v>
+        <v>870.420923505812</v>
       </c>
       <c r="S5">
-        <v>0.247938400373548</v>
+        <v>0.2888262112528778</v>
       </c>
       <c r="T5">
-        <v>0.247938400373548</v>
+        <v>0.2888262112528778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>0.036239</v>
       </c>
       <c r="O6">
-        <v>0.0001548180093772148</v>
+        <v>0.0001452797431229321</v>
       </c>
       <c r="P6">
-        <v>0.0001548180093772148</v>
+        <v>0.0001452797431229321</v>
       </c>
       <c r="Q6">
         <v>0.04434646558455556</v>
@@ -818,10 +818,10 @@
         <v>0.399118190261</v>
       </c>
       <c r="S6">
-        <v>0.0001411319098472664</v>
+        <v>0.0001324368378817127</v>
       </c>
       <c r="T6">
-        <v>0.0001411319098472664</v>
+        <v>0.0001324368378817127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>170.37447</v>
       </c>
       <c r="O7">
-        <v>0.7278632493749275</v>
+        <v>0.6830199298078229</v>
       </c>
       <c r="P7">
-        <v>0.7278632493749274</v>
+        <v>0.6830199298078229</v>
       </c>
       <c r="Q7">
         <v>208.4910061078367</v>
@@ -880,10 +880,10 @@
         <v>1876.41905497053</v>
       </c>
       <c r="S7">
-        <v>0.6635192566107174</v>
+        <v>0.6226401408033532</v>
       </c>
       <c r="T7">
-        <v>0.6635192566107174</v>
+        <v>0.6226401408033533</v>
       </c>
     </row>
   </sheetData>
